--- a/DateBase/orders/Dang Nguyen_2025-8-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +520,215 @@
       <c r="A11" t="str">
         <v>2</v>
       </c>
+      <c r="C11" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>559_粉廖_Polygonum_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>4</v>
+      </c>
+      <c r="C35" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L35"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -581,7 +786,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09410551010670</v>
+        <v>094105510106751015551055635108510205551055550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-20.xlsx
@@ -725,6 +725,9 @@
       <c r="C35" t="str">
         <v>721_银扇干花_undefined_undefined_1bunch</v>
       </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -786,7 +789,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>094105510106751015551055635108510205551055550</v>
+        <v>0941055101067510155510556351085102055510555515</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
